--- a/Othes/Symphony Update Price List 11.4.19.xlsx
+++ b/Othes/Symphony Update Price List 11.4.19.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -292,7 +292,7 @@
     <t>Package 5 Offer</t>
   </si>
   <si>
-    <t>Symphony Update Price list                              Date: 17.4.19</t>
+    <t>Symphony Update Price list                              Date: 21.4.19</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -502,6 +502,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -809,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection sqref="A1:J42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="18.75"/>
@@ -1375,19 +1378,19 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="37.5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="9">
         <v>1290</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="9">
         <v>1390</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="9">
         <v>100</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="20">
         <v>10</v>
       </c>
       <c r="G22" s="12" t="s">

--- a/Othes/Symphony Update Price List 11.4.19.xlsx
+++ b/Othes/Symphony Update Price List 11.4.19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
   <si>
     <t>B12i</t>
   </si>
@@ -292,7 +292,10 @@
     <t>Package 5 Offer</t>
   </si>
   <si>
-    <t>Symphony Update Price list                              Date: 21.4.19</t>
+    <t>Symphony Update Price list                              Date: 22.4.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -500,11 +503,11 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -810,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22" defaultRowHeight="18.75"/>
@@ -831,18 +834,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="37.5">
       <c r="A2" s="1" t="s">
@@ -1244,7 +1247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="37.5">
+    <row r="17" spans="1:11" ht="37.5">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -1296,7 +1299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="37.5">
+    <row r="21" spans="1:11" ht="37.5">
       <c r="A21" s="3" t="s">
         <v>74</v>
       </c>
@@ -1377,8 +1380,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="37.5">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:11" ht="37.5">
+      <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="9">
@@ -1390,7 +1393,7 @@
       <c r="D22" s="9">
         <v>100</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>10</v>
       </c>
       <c r="G22" s="12" t="s">
@@ -1406,7 +1409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.25" customHeight="1">
+    <row r="24" spans="1:11" ht="20.25" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="21" customHeight="1">
+    <row r="25" spans="1:11" ht="21" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>47</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
         <v>1</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="12" t="s">
         <v>2</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="37.5">
+    <row r="31" spans="1:11" ht="37.5">
       <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
@@ -1650,8 +1653,11 @@
       <c r="J31" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="37.5">
+      <c r="K31" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="37.5">
       <c r="A32" s="3" t="s">
         <v>83</v>
       </c>
